--- a/biology/Médecine/Processus_styloïde_de_l'os_temporal/Processus_styloïde_de_l'os_temporal.xlsx
+++ b/biology/Médecine/Processus_styloïde_de_l'os_temporal/Processus_styloïde_de_l'os_temporal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Processus_stylo%C3%AFde_de_l%27os_temporal</t>
+          <t>Processus_styloïde_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus styloïde de l'os temporal ou apophyse styloïde de l'os temporal est un processus osseux du squelette du crâne implanté sur la face inférieure de la partie pétreuse de l'os temporal, juste en dessous de l'oreille.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Processus_stylo%C3%AFde_de_l%27os_temporal</t>
+          <t>Processus_styloïde_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Structure</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus styloïde est un morceau d'os fin et pointu long de 3 cm en moyenne juste en dessous de l'oreille. Il se projette vers le bas et vers l'avant à partir de la surface inférieure de l'os temporal et sert de point d'ancrage pour 3 muscles associés à la langue et au larynx et pour 2 ligaments, ces cinq éléments formant le bouquet de Riolan.
 Sa partie proximale est engainée par la partie tympanique de l'os temporal (processus vaginal).
@@ -532,7 +546,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Processus_stylo%C3%AFde_de_l%27os_temporal</t>
+          <t>Processus_styloïde_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -550,7 +564,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un petit pourcentage de la population souffre d'un allongement du processus styloïde et d'une calcification du ligament stylo-hyoïdien. Cette condition est également connue sous le nom de syndrome d'Eagle. Les tissus de la gorge frottent sur le processus styloïde pendant l'acte de déglutition, ce qui entraîne une douleur le long du nerf glossopharyngien. Il se produit aussi une douleur en tournant la tête ou en étendant la langue. D'autres symptômes peuvent inclure une altération de la voix, une toux, des étourdissements, des migraines, une névralgie occipitale, ou encore des douleurs dans les dents et la mâchoire et une sinusite ou des yeux injectés de sang.
 </t>
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Processus_stylo%C3%AFde_de_l%27os_temporal</t>
+          <t>Processus_styloïde_de_l'os_temporal</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Développement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le processus styloïde résulte de l'ossification endochondrale du cartilage du deuxième arc branchial.
 </t>
